--- a/outputs-r202/g__UBA1213.xlsx
+++ b/outputs-r202/g__UBA1213.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB13"/>
+  <dimension ref="A1:BC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -873,6 +878,11 @@
           <t>s__UBA1213 sp900315465</t>
         </is>
       </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp900315465</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1041,6 +1051,11 @@
           <t>s__UBA1213 sp900315875</t>
         </is>
       </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp900315875</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1209,6 +1224,11 @@
           <t>s__UBA1213 sp900316485</t>
         </is>
       </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp900316485</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1377,6 +1397,11 @@
           <t>s__UBA1213 sp900316925</t>
         </is>
       </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp900316925</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1545,6 +1570,11 @@
           <t>s__UBA1213 sp900317215</t>
         </is>
       </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp900317215</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1713,6 +1743,11 @@
           <t>s__UBA1213 sp900317395</t>
         </is>
       </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp900317395</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1881,6 +1916,11 @@
           <t>s__UBA1213 sp900317795</t>
         </is>
       </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp900317795</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2049,6 +2089,11 @@
           <t>s__UBA1213 sp900319255</t>
         </is>
       </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp900319255</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2217,6 +2262,11 @@
           <t>s__UBA1213 sp900320235</t>
         </is>
       </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp900320235</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2385,6 +2435,11 @@
           <t>s__UBA1213 sp900321195</t>
         </is>
       </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp900321195</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2553,6 +2608,11 @@
           <t>s__UBA1213 sp900322105</t>
         </is>
       </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp900322105</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2717,6 +2777,11 @@
         <v>1</v>
       </c>
       <c r="BB13" t="inlineStr">
+        <is>
+          <t>s__UBA1213 sp902802105</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
         <is>
           <t>s__UBA1213 sp902802105</t>
         </is>
